--- a/distiller/doc/water_flow_sensor.xlsx
+++ b/distiller/doc/water_flow_sensor.xlsx
@@ -256,66 +256,102 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8520</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4380</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4400</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1560</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>840</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>780</c:v>
+                  <c:v>1860</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>540</c:v>
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>95.744680851063848</c:v>
+                  <c:v>5.0279329608938541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.420168067226882</c:v>
+                  <c:v>5.0279329608938541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.420168067226882</c:v>
+                  <c:v>14.594594594594595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.149302707137</c:v>
+                  <c:v>16.744186046511629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.704433497536947</c:v>
+                  <c:v>16.744186046511629</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.626041209995616</c:v>
+                  <c:v>23.225806451612904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.626041209995616</c:v>
+                  <c:v>23.225806451612904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2402464065708418</c:v>
+                  <c:v>29.189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.173913043478258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.173913043478258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.173913043478258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,78 +1464,78 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8520</v>
+        <v>380</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="C2">
-        <v>22.56</v>
+        <v>89.5</v>
       </c>
       <c r="D2">
-        <f>60*$B2/1000/$C2</f>
-        <v>1.595744680851064</v>
+        <f t="shared" ref="D2:D15" si="0">60*$B2/1000/$C2</f>
+        <v>8.3798882681564241E-2</v>
       </c>
       <c r="E2">
-        <f>60*$D2</f>
-        <v>95.744680851063848</v>
+        <f t="shared" ref="E2:E15" si="1">60*$D2</f>
+        <v>5.0279329608938541</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4380</v>
+        <v>420</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>35.700000000000003</v>
+        <v>89.5</v>
       </c>
       <c r="D3">
-        <f>60*$B3/1000/$C3</f>
-        <v>0.84033613445378141</v>
+        <f t="shared" si="0"/>
+        <v>8.3798882681564241E-2</v>
       </c>
       <c r="E3">
-        <f>60*$D3</f>
-        <v>50.420168067226882</v>
+        <f t="shared" si="1"/>
+        <v>5.0279329608938541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4400</v>
+        <v>1080</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>35.700000000000003</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <f>60*$B4/1000/$C4</f>
-        <v>0.84033613445378141</v>
+        <f t="shared" si="0"/>
+        <v>0.24324324324324326</v>
       </c>
       <c r="E4">
-        <f>60*$D4</f>
-        <v>50.420168067226882</v>
+        <f t="shared" si="1"/>
+        <v>14.594594594594595</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="B5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C5">
-        <v>97.52</v>
+        <v>64.5</v>
       </c>
       <c r="D5">
-        <f>60*$B5/1000/$C5</f>
-        <v>0.36915504511894998</v>
+        <f t="shared" si="0"/>
+        <v>0.27906976744186046</v>
       </c>
       <c r="E5">
-        <f>60*$D5</f>
-        <v>22.149302707137</v>
+        <f t="shared" si="1"/>
+        <v>16.744186046511629</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1507,75 +1543,189 @@
         <v>1320</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>73.08</v>
+        <v>64.5</v>
       </c>
       <c r="D6">
-        <f>60*$B6/1000/$C6</f>
-        <v>0.32840722495894908</v>
+        <f t="shared" si="0"/>
+        <v>0.27906976744186046</v>
       </c>
       <c r="E6">
-        <f>60*$D6</f>
-        <v>19.704433497536947</v>
+        <f t="shared" si="1"/>
+        <v>16.744186046511629</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>840</v>
+        <v>1800</v>
       </c>
       <c r="B7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C7">
-        <v>114.05</v>
+        <v>46.5</v>
       </c>
       <c r="D7">
-        <f>60*$B7/1000/$C7</f>
-        <v>0.2104340201665936</v>
+        <f t="shared" si="0"/>
+        <v>0.38709677419354838</v>
       </c>
       <c r="E7">
-        <f>60*$D7</f>
-        <v>12.626041209995616</v>
+        <f t="shared" si="1"/>
+        <v>23.225806451612904</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>780</v>
+        <v>1860</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C8">
-        <v>114.05</v>
+        <v>46.5</v>
       </c>
       <c r="D8">
-        <f>60*$B8/1000/$C8</f>
-        <v>0.2104340201665936</v>
+        <f t="shared" si="0"/>
+        <v>0.38709677419354838</v>
       </c>
       <c r="E8">
-        <f>60*$D8</f>
-        <v>12.626041209995616</v>
+        <f t="shared" si="1"/>
+        <v>23.225806451612904</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>540</v>
+        <v>2340</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>77.92</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <f>60*$B9/1000/$C9</f>
-        <v>0.1540041067761807</v>
+        <f t="shared" si="0"/>
+        <v>0.48648648648648651</v>
       </c>
       <c r="E9">
-        <f>60*$D9</f>
-        <v>9.2402464065708418</v>
+        <f t="shared" si="1"/>
+        <v>29.189189189189189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2400</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>29.189189189189189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3180</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>38.571428571428577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3240</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>38.571428571428577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4380</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>20.7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>52.173913043478258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4440</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>20.7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>52.173913043478258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4500</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>20.7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>52.173913043478258</v>
       </c>
     </row>
   </sheetData>
